--- a/biology/Zoologie/Corynophora/Corynophora.xlsx
+++ b/biology/Zoologie/Corynophora/Corynophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corynophora est un genre de lépidoptères (papillons) de la famille des Crambidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ne pas confondre ce genre de papillons avec le genre Corynophora C.Agardh, 1824 qui regroupe des espèces d'algues de la famille des Chordariaceae. Ce dernier genre est toutefois invalide et les espèces concernées sont désormais rattachées au genre Leathesia S.F.Gray, 1821[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ne pas confondre ce genre de papillons avec le genre Corynophora C.Agardh, 1824 qui regroupe des espèces d'algues de la famille des Chordariaceae. Ce dernier genre est toutefois invalide et les espèces concernées sont désormais rattachées au genre Leathesia S.F.Gray, 1821.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon FUNET Tree of Life  (18 octobre 2020)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon FUNET Tree of Life  (18 octobre 2020) :
 Corynophora argentifascia (Hampson, 1919)
 Corynophora lativittalis (Walker, 1863)
 Corynophora torrentellus (Meyrick, 1879)</t>
